--- a/path_scenarios.xlsx
+++ b/path_scenarios.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmcme\Development\src\perl\Fileutils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmcme\cygwin\Development\src\cpan\Batch-Exec-Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA02473A-3150-4FD3-81D5-0C83E2045B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164090DA-FB93-4B10-BB66-0A0EEFD78CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>path conversion</t>
   </si>
@@ -115,13 +125,31 @@
   </si>
   <si>
     <t>volume?</t>
+  </si>
+  <si>
+    <t>\\wsl$\Ubuntu</t>
+  </si>
+  <si>
+    <t>wsl --list</t>
+  </si>
+  <si>
+    <t>Windows Subsystem for Linux Distributions:</t>
+  </si>
+  <si>
+    <t>Ubuntu (Default)</t>
+  </si>
+  <si>
+    <t>//wsl$/Ubuntu</t>
+  </si>
+  <si>
+    <t>WSL2: see wsl --list for origin of Ubuntu (below)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +164,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -272,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -309,22 +343,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -618,9 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -628,7 +660,7 @@
     <col min="2" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -820,35 +852,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="str">
+        <f>B10</f>
+        <v>\\wsl$\Ubuntu</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -857,8 +900,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:E4 C5:F9">
+  <conditionalFormatting sqref="C4:E4 C5:F10">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>C4&lt;&gt;$B4</formula>
     </cfRule>
@@ -868,7 +937,7 @@
       <formula>F4&lt;&gt;$B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H9">
+  <conditionalFormatting sqref="G4:H10">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>G4</formula>
     </cfRule>

--- a/path_scenarios.xlsx
+++ b/path_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmcme\cygwin\Development\src\cpan\Batch-Exec-Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164090DA-FB93-4B10-BB66-0A0EEFD78CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8DC90F-9647-4D87-9388-F90E1CC8C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>path conversion</t>
   </si>
@@ -46,18 +46,9 @@
     <t>to</t>
   </si>
   <si>
-    <t>on_windows</t>
-  </si>
-  <si>
-    <t>on_wsl</t>
-  </si>
-  <si>
     <t>windows_like</t>
   </si>
   <si>
-    <t>on_cygwin</t>
-  </si>
-  <si>
     <t>/mnt/c/tmp</t>
   </si>
   <si>
@@ -115,12 +106,6 @@
     <t>\tmp</t>
   </si>
   <si>
-    <t>force windows available for "shellify"</t>
-  </si>
-  <si>
-    <t>force windows available for "w"</t>
-  </si>
-  <si>
     <t>relative?</t>
   </si>
   <si>
@@ -143,6 +128,51 @@
   </si>
   <si>
     <t>WSL2: see wsl --list for origin of Ubuntu (below)</t>
+  </si>
+  <si>
+    <t>cyg</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>wsl</t>
+  </si>
+  <si>
+    <t>hyb</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>nfs</t>
+  </si>
+  <si>
+    <t>server:/c$/tmp</t>
+  </si>
+  <si>
+    <t>conversion to cygwin or hybrid should check drive letter, otherwise default to lux format</t>
+  </si>
+  <si>
+    <t>(undefined)</t>
+  </si>
+  <si>
+    <t>WSL is really only a Windows visible filesystem; remove volumes for lux and nfs</t>
+  </si>
+  <si>
+    <t>\\wsl$\Ubuntu\tmp</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>non-Cygwin unices do not recognise WSL, assume root</t>
+  </si>
+  <si>
+    <t>Strange scenario for conversion to WSL</t>
   </si>
 </sst>
 </file>
@@ -172,7 +202,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,19 +276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -293,20 +316,11 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -316,41 +330,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -648,298 +671,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="str">
+        <f>F4</f>
+        <v>./tmp</v>
+      </c>
+      <c r="H4" s="14" t="str">
+        <f>G4</f>
+        <v>./tmp</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="str">
+        <f t="shared" ref="G5:H5" si="0">F5</f>
+        <v>foo/bar</v>
+      </c>
+      <c r="H5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>foo/bar</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="14" t="str">
+        <f t="shared" ref="H6" si="1">G6</f>
+        <v>/tmp</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="str">
+        <f>C6</f>
+        <v>/cygdrive/c/tmp</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f>D7</f>
+        <v>c:\tmp</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="14" t="str">
+        <f>G7</f>
+        <v>(undefined)</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="str">
+        <f>E8</f>
+        <v>\\server\c$\tmp</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="14" t="str">
+        <f>$B9</f>
+        <v>/tmp</v>
+      </c>
+      <c r="H9" s="14" t="str">
+        <f>$B9</f>
+        <v>/tmp</v>
+      </c>
+      <c r="I9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
+      <c r="J9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f>$B10</f>
+        <v>\\wsl$\Ubuntu</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>$B10</f>
+        <v>\\wsl$\Ubuntu</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14" t="str">
+        <f>$B11</f>
+        <v>/</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>$B11</f>
+        <v>/</v>
+      </c>
+      <c r="G11" s="14" t="str">
+        <f>$B11</f>
+        <v>/</v>
+      </c>
+      <c r="H11" s="14" t="str">
+        <f>$B11</f>
+        <v>/</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <f>D6</f>
-        <v>/mnt/c/tmp</v>
-      </c>
-      <c r="E7" s="12" t="str">
-        <f>E6</f>
-        <v>/cygdrive/c/tmp</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="str">
-        <f>F8</f>
-        <v>//server/c$/tmp</v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <f>D8</f>
-        <v>//server/c$/tmp</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f>B9</f>
-        <v>/tmp</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>B9</f>
-        <v>/tmp</v>
-      </c>
-      <c r="F9" s="12" t="str">
-        <f>B9</f>
-        <v>/tmp</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12" t="str">
-        <f>B10</f>
-        <v>\\wsl$\Ubuntu</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="12" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="13" t="s">
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="18" t="s">
-        <v>33</v>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:E4 C5:F10">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C4:H11">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>C4&lt;&gt;$B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="F4:H4 G5:H5 H6">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F4&lt;&gt;$B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H10">
+  <conditionalFormatting sqref="I4:J11">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>I4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>G4</formula>
+      <formula>G6&lt;&gt;$B6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
